--- a/опт и Краснодар/2023/12,23/11,12,23 Сочи КИ/дв 11,12,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/12,23/11,12,23 Сочи КИ/дв 11,12,23 счрсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\11,12,23 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF5F682-0D74-41B3-B587-7E95A9B9B0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45728F6B-1A71-40AF-AAD6-075A6ACB6751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7211,7 +7211,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
